--- a/static/input/x.xlsx
+++ b/static/input/x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" state="visible" r:id="rId3"/>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Anchorage, Alaska</t>
   </si>
   <si>
-    <t xml:space="preserve">Summers Family Tree</t>
+    <t xml:space="preserve">Truffles Family Tree</t>
   </si>
   <si>
     <t xml:space="preserve">Madelyne Pryor</t>
@@ -196,16 +196,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,145 +407,145 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>30317</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>31413</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>29221</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>39814</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>34700</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>29221</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -574,220 +578,220 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>30317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>31413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>30317</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>31413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>23012</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>29221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>39814</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>29221</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>39814</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>34700</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>34700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B11" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>29221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>23012</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="3" t="n">
+        <v>23012</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>29221</v>
       </c>
     </row>
